--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_11.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914735</v>
+        <v>2589789.105914736</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136535</v>
+        <v>19958284.28136533</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E3" t="n">
         <v>44.13217237922859</v>
@@ -750,61 +750,61 @@
         <v>44.13217237922859</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="H3" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
     </row>
     <row r="5">
@@ -896,73 +896,73 @@
         <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
+        <v>38.87161743162454</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D5" t="n">
+      <c r="Y5" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="E5" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="S6" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="T6" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="U6" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.65313100102799</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I7" t="n">
         <v>44.13217237922859</v>
@@ -1078,7 +1078,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,70 +1133,70 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="V8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,55 +1446,55 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C12" t="n">
+      <c r="H12" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D12" t="n">
+      <c r="I12" t="n">
+        <v>38.12502610536669</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="E12" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>42.20118209180436</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>38.87161743162455</v>
+      </c>
+      <c r="E14" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C14" t="n">
+      <c r="F14" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>38.87161743162454</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>44.13217237922859</v>
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>38.87161743162454</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>38.87161743162455</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
         <v>44.13217237922859</v>
@@ -1898,7 +1898,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S18" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2002,28 +2002,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>90.36004757168706</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2208,16 +2208,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>192.7339396976112</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.83710273534405</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>122.5377819982128</v>
+        <v>25.27301452591087</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -2655,7 +2655,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,73 +2792,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,64 +3029,64 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>74.78947726328597</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>157.5257699022974</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>130.0567675788274</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="F38" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3585,22 +3585,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>61.68827609322837</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,67 +3740,67 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>150.4149128677507</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>147.9845033927267</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3904,46 +3904,46 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C44" t="n">
         <v>44.13217237922859</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
         <v>38.87161743162455</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>44.13217237922859</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>44.13217237922859</v>
@@ -4116,7 +4116,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,76 +4132,76 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.7904504476822691</v>
+      </c>
+      <c r="U46" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W46" t="n">
-        <v>0.7904504476822409</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H2" t="n">
         <v>3.530573790338288</v>
@@ -4343,7 +4343,7 @@
         <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
         <v>176.5286895169144</v>
@@ -4361,19 +4361,19 @@
         <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="X2" t="n">
         <v>92.68647758675968</v>
       </c>
-      <c r="X2" t="n">
-        <v>48.10852568854899</v>
-      </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E3" t="n">
-        <v>131.9507376187037</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F3" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
         <v>3.530573790338288</v>
@@ -4410,19 +4410,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
         <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>90.91227510121089</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N3" t="n">
-        <v>90.91227510121089</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
         <v>132.8378388614781</v>
@@ -4452,7 +4452,7 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J4" t="n">
         <v>26.02500997809875</v>
@@ -4504,34 +4504,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>115.1809137745201</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.9507376187037</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C5" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
         <v>3.530573790338288</v>
@@ -4568,19 +4568,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="L5" t="n">
         <v>47.22142444577459</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>90.91227510121089</v>
       </c>
-      <c r="M5" t="n">
-        <v>134.6031257566472</v>
-      </c>
       <c r="N5" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>134.6031257566472</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
         <v>176.5286895169144</v>
@@ -4607,10 +4607,10 @@
         <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E6" t="n">
         <v>3.530573790338288</v>
@@ -4650,16 +4650,16 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P6" t="n">
         <v>132.8378388614781</v>
@@ -4668,28 +4668,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="S6" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="T6" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="U6" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="V6" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="W6" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="X6" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="Y6" t="n">
         <v>131.9507376187037</v>
-      </c>
-      <c r="S6" t="n">
-        <v>87.37278572049297</v>
-      </c>
-      <c r="T6" t="n">
-        <v>48.10852568854899</v>
-      </c>
-      <c r="U6" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="X6" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4717,13 +4717,13 @@
         <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1809137745201</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K7" t="n">
         <v>3.530573790338288</v>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
         <v>3.530573790338288</v>
@@ -4805,49 +4805,49 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
         <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V8" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>89.14698820604177</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M9" t="n">
         <v>89.14698820604177</v>
@@ -4905,28 +4905,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>87.37278572049297</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>42.79483382228227</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
         <v>3.530573790338288</v>
@@ -4987,25 +4987,25 @@
         <v>46.15803044872652</v>
       </c>
       <c r="S10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W11" t="n">
-        <v>131.9507376187037</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X11" t="n">
-        <v>87.37278572049297</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.79483382228227</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="12">
@@ -5097,73 +5097,73 @@
         <v>131.9507376187037</v>
       </c>
       <c r="C12" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="D12" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="E12" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="F12" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="G12" t="n">
         <v>87.37278572049297</v>
       </c>
-      <c r="D12" t="n">
+      <c r="H12" t="n">
         <v>42.79483382228227</v>
       </c>
-      <c r="E12" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.530573790338288</v>
-      </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J12" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>26.02500997809875</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>26.02500997809875</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>26.02500997809875</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>26.02500997809875</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>26.02500997809875</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
         <v>3.530573790338288</v>
@@ -5218,31 +5218,31 @@
         <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R13" t="n">
-        <v>90.73598234693722</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="S13" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="T13" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U13" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V13" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.37278572049297</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C14" t="n">
-        <v>42.79483382228227</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D14" t="n">
-        <v>42.79483382228227</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E14" t="n">
-        <v>42.79483382228227</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F14" t="n">
-        <v>42.79483382228227</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
         <v>3.530573790338288</v>
@@ -5279,7 +5279,7 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
         <v>89.14698820604177</v>
@@ -5288,10 +5288,10 @@
         <v>89.14698820604177</v>
       </c>
       <c r="N14" t="n">
+        <v>89.14698820604177</v>
+      </c>
+      <c r="O14" t="n">
         <v>132.8378388614781</v>
-      </c>
-      <c r="O14" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
         <v>176.5286895169144</v>
@@ -5306,22 +5306,22 @@
         <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W14" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X14" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="15">
@@ -5334,25 +5334,25 @@
         <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="D15" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="E15" t="n">
         <v>131.9507376187037</v>
       </c>
-      <c r="D15" t="n">
-        <v>87.37278572049297</v>
-      </c>
-      <c r="E15" t="n">
-        <v>42.79483382228227</v>
-      </c>
       <c r="F15" t="n">
-        <v>42.79483382228227</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J15" t="n">
         <v>3.530573790338288</v>
@@ -5519,16 +5519,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
@@ -5537,13 +5537,13 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>137.2644294849704</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U17" t="n">
         <v>3.530573790338288</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
         <v>3.530573790338288</v>
@@ -5595,7 +5595,7 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
         <v>47.22142444577459</v>
@@ -5604,10 +5604,10 @@
         <v>47.22142444577459</v>
       </c>
       <c r="N18" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O18" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
         <v>132.8378388614781</v>
@@ -5616,28 +5616,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T18" t="n">
-        <v>87.37278572049297</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.90696048418764</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D19" t="n">
-        <v>4.329008585976936</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E19" t="n">
-        <v>4.329008585976936</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F19" t="n">
-        <v>4.329008585976936</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G19" t="n">
-        <v>4.329008585976936</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
         <v>3.530573790338288</v>
@@ -5695,28 +5695,28 @@
         <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X19" t="n">
-        <v>48.90696048418764</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>72.23626279480629</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>668.2068788942177</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="C21" t="n">
-        <v>668.2068788942177</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,19 +5832,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y21" t="n">
-        <v>668.2068788942177</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>313.2169245427344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>166.6823665696193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>27.95154115223485</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6075,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6169,28 +6169,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>485.4562706347935</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="C27" t="n">
-        <v>485.4562706347935</v>
+        <v>387.9631634165672</v>
       </c>
       <c r="D27" t="n">
-        <v>485.4562706347935</v>
+        <v>387.9631634165672</v>
       </c>
       <c r="E27" t="n">
-        <v>485.4562706347935</v>
+        <v>387.9631634165672</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6309,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X27" t="n">
-        <v>485.4562706347935</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y27" t="n">
-        <v>485.4562706347935</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6415,19 +6415,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>428.8733789897854</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C33" t="n">
-        <v>428.8733789897854</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D33" t="n">
-        <v>279.9389693285341</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E33" t="n">
-        <v>279.9389693285341</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="F33" t="n">
-        <v>133.4044113554191</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6783,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>804.9402162153863</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X33" t="n">
-        <v>597.0887160098534</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y33" t="n">
-        <v>597.0887160098534</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.32787816303323</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>82.32787816303323</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>325.7766548071333</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.32787816303323</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>832.6866832087903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>630.5000885675563</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>630.5000885675563</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>395.3479803358136</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>395.3479803358136</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4964801302808</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>187.4964801302808</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7114,10 +7114,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
         <v>19.28114311021272</v>
@@ -7157,7 +7157,7 @@
         <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>689.4702815141908</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="C39" t="n">
-        <v>689.4702815141908</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="D39" t="n">
-        <v>668.2068788942177</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y39" t="n">
-        <v>689.4702815141908</v>
+        <v>82.34666575615842</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.5807722530562</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7494,10 +7494,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>109.5807722530562</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>109.5807722530562</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>109.5807722530562</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.5807722530562</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K44" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L44" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M44" t="n">
-        <v>89.14698820604177</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N44" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O44" t="n">
         <v>176.5286895169144</v>
@@ -7670,10 +7670,10 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R44" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S44" t="n">
-        <v>137.2644294849704</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T44" t="n">
         <v>137.2644294849704</v>
@@ -7688,10 +7688,10 @@
         <v>92.68647758675968</v>
       </c>
       <c r="X44" t="n">
-        <v>48.10852568854899</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y44" t="n">
-        <v>48.10852568854899</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C45" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D45" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E45" t="n">
         <v>3.530573790338288</v>
@@ -7731,10 +7731,10 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L45" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M45" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N45" t="n">
         <v>89.14698820604177</v>
@@ -7749,28 +7749,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R45" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="S45" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="T45" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="U45" t="n">
         <v>131.9507376187037</v>
       </c>
-      <c r="S45" t="n">
-        <v>131.9507376187037</v>
-      </c>
-      <c r="T45" t="n">
-        <v>92.68647758675968</v>
-      </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
+        <v>87.37278572049297</v>
+      </c>
+      <c r="W45" t="n">
         <v>48.10852568854899</v>
       </c>
-      <c r="V45" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="W45" t="n">
-        <v>3.530573790338288</v>
-      </c>
       <c r="X45" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L46" t="n">
-        <v>69.3105240343566</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M46" t="n">
-        <v>108.4985622265788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N46" t="n">
-        <v>152.1894128820151</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S46" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T46" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U46" t="n">
-        <v>176.5286895169144</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V46" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W46" t="n">
-        <v>175.7302547212757</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X46" t="n">
-        <v>131.152302823065</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.57435092485433</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
   </sheetData>
@@ -7991,10 +7991,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8073,7 +8073,7 @@
         <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
         <v>184.1139464652501</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>279.8985873492159</v>
@@ -8225,13 +8225,13 @@
         <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>273.5820500585697</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,7 +8298,7 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
@@ -8307,10 +8307,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q6" t="n">
         <v>184.1139464652501</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>278.1154692732874</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>180.9034340831744</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
         <v>175.4738844625619</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>278.1154692732874</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>180.1904932776592</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8781,13 +8781,13 @@
         <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>262.4389053482807</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
         <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9167,19 +9167,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
         <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
-        <v>176.3234617176304</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>184.1139464652501</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,13 +9957,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10668,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5691090902119</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11297,19 +11297,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>262.4389053482807</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L44" t="n">
         <v>279.8985873492159</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N44" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>274.2303838009153</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11379,13 +11379,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>182.6865521591028</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>173.6907663866335</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O45" t="n">
         <v>186.728416823673</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22562,7 +22562,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22601,7 +22601,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>330.8594832468445</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22629,7 +22629,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E3" t="n">
         <v>113.5129080761724</v>
@@ -22638,10 +22638,10 @@
         <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="4">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22720,13 +22720,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>198.6529630861733</v>
       </c>
     </row>
     <row r="5">
@@ -22784,13 +22784,13 @@
         <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>321.1407193917789</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D5" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>343.0587526406372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22863,13 +22863,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22957,7 +22957,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>139.5740415064116</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I7" t="n">
         <v>111.3183025480297</v>
@@ -22966,7 +22966,7 @@
         <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23063,28 +23063,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>222.4647346907568</v>
       </c>
       <c r="V8" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>330.8594832468445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23200,10 +23200,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23227,7 +23227,7 @@
         <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343.862224231856</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>193.5442607079387</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,31 +23334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>118.7734630237764</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>51.27160674604839</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>126.5022723806477</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>43.96086115989003</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23473,7 +23473,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>315.8114241890584</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G14" t="n">
-        <v>376.4311200835105</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23546,7 +23546,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23574,10 +23574,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>113.5129080761724</v>
@@ -23586,16 +23586,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>98.47189973158609</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>110.9975005095251</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
         <v>164.8878972070167</v>
@@ -23786,7 +23786,7 @@
         <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23820,7 +23820,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S18" t="n">
         <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,13 +23905,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>92.56872966899051</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -23935,13 +23935,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
         <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,7 +23981,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>362.8771690273874</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24035,7 +24035,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,19 +24054,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>67.28503288371388</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,16 +24096,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>40.06664745181408</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24181,10 +24181,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,7 +24209,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,10 +24221,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,31 +24282,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3983415011524</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,22 +24336,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>153.9285226410787</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,22 +24488,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>227.3726215175137</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,7 +24531,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>22.5314303951711</v>
+        <v>119.796197867473</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24543,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,19 +24570,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,10 +24680,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24731,22 +24731,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24895,7 +24895,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,22 +24917,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,13 +24968,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>62.55403989992466</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,19 +25047,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>94.16921325862216</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>127.4190336299326</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25096,7 +25096,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>352.8864698128427</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>41.6264035250104</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,13 +25354,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25397,10 +25397,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25473,22 +25473,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>27.7083567581867</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,13 +25628,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>22.29358612056504</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25725,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>84.81608375669853</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C44" t="n">
         <v>321.1407193917789</v>
@@ -25910,13 +25910,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U44" t="n">
         <v>207.2134805286079</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25950,7 +25950,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>181.8092097017462</v>
@@ -26004,7 +26004,7 @@
         <v>188.6684147701967</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26074,22 +26074,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W46" t="n">
-        <v>285.7325478889088</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X46" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352681.3657860368</v>
+        <v>352681.3657860367</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352681.3657860368</v>
+        <v>352681.3657860367</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352681.3657860368</v>
+        <v>352681.3657860367</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674311</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315934</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="C2" t="n">
         <v>65754.15294315932</v>
       </c>
       <c r="D2" t="n">
+        <v>65754.15294315929</v>
+      </c>
+      <c r="E2" t="n">
+        <v>65754.15294315934</v>
+      </c>
+      <c r="F2" t="n">
         <v>65754.15294315932</v>
       </c>
-      <c r="E2" t="n">
-        <v>65754.15294315931</v>
-      </c>
-      <c r="F2" t="n">
-        <v>65754.15294315931</v>
-      </c>
       <c r="G2" t="n">
-        <v>65754.15294315931</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="H2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="I2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="J2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="K2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="O2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="J2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223277</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="P2" t="n">
-        <v>65754.15294315934</v>
+        <v>65754.15294315932</v>
       </c>
     </row>
     <row r="3">
@@ -26436,22 +26436,22 @@
         <v>3448.11787725023</v>
       </c>
       <c r="I4" t="n">
+        <v>3448.11787725023</v>
+      </c>
+      <c r="J4" t="n">
         <v>3448.117877250231</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>3448.117877250231</v>
+      </c>
+      <c r="L4" t="n">
         <v>3448.11787725023</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3448.11787725023</v>
       </c>
-      <c r="L4" t="n">
-        <v>3448.117877250231</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3448.117877250231</v>
-      </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>3448.11787725023</v>
       </c>
       <c r="O4" t="n">
         <v>3448.117877250231</v>
@@ -26525,43 +26525,43 @@
         <v>27066.64985878774</v>
       </c>
       <c r="D6" t="n">
-        <v>27066.64985878774</v>
+        <v>27066.64985878771</v>
       </c>
       <c r="E6" t="n">
-        <v>60694.24985878773</v>
+        <v>60694.24985878776</v>
       </c>
       <c r="F6" t="n">
-        <v>60694.24985878773</v>
+        <v>60694.24985878774</v>
       </c>
       <c r="G6" t="n">
-        <v>60694.24985878773</v>
+        <v>60694.24985878774</v>
       </c>
       <c r="H6" t="n">
-        <v>20166.01628089588</v>
+        <v>20166.01628089587</v>
       </c>
       <c r="I6" t="n">
+        <v>73286.58325122093</v>
+      </c>
+      <c r="J6" t="n">
+        <v>61739.66514123003</v>
+      </c>
+      <c r="K6" t="n">
         <v>73286.58325122092</v>
       </c>
-      <c r="J6" t="n">
-        <v>61739.66514123001</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>73286.5832512209</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>73286.5832512209</v>
+      </c>
+      <c r="N6" t="n">
+        <v>73286.58325122093</v>
+      </c>
+      <c r="O6" t="n">
         <v>73286.58325122092</v>
       </c>
-      <c r="M6" t="n">
-        <v>73286.58325122092</v>
-      </c>
-      <c r="N6" t="n">
-        <v>73286.58325122087</v>
-      </c>
-      <c r="O6" t="n">
-        <v>73286.5832512209</v>
-      </c>
       <c r="P6" t="n">
-        <v>60694.24985878776</v>
+        <v>60694.24985878774</v>
       </c>
     </row>
   </sheetData>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="P3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="M3" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>42.34905430330019</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>44.13217237922859</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>44.13217237922859</v>
@@ -34945,13 +34945,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q6" t="n">
         <v>44.13217237922859</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
+        <v>42.34905430330019</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="N8" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="O8" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>42.34905430330018</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
         <v>44.13217237922859</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="L14" t="n">
         <v>42.34905430330018</v>
       </c>
-      <c r="L14" t="n">
-        <v>44.13217237922859</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O18" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="P18" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>44.13217237922859</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,16 +36443,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,22 +37151,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38017,19 +38017,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L44" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>42.34905430330018</v>
       </c>
       <c r="O45" t="n">
         <v>44.13217237922859</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>411827.9565614139</v>
+        <v>438336.2585840488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914736</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136533</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4838958.146213134</v>
+        <v>5667942.033436031</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -741,25 +741,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.87161743162455</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E3" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>38.87161743162454</v>
+        <v>150.2142914581905</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0.790450447682262</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="U8" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>38.12502610536668</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>16.93162886246721</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.20118209180436</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>38.87161743162455</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>90.36004757168706</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>153.181259103298</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,19 +2366,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2454,16 +2454,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>97.76646051984092</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>100.3796369526212</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>25.27301452591087</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>62.86349518004441</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,10 +2691,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2889,10 +2889,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>148.2055127524862</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3120,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>74.78947726328597</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>47.82686628320264</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>34.45669791948801</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>61.68827609322837</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.285385643442</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>150.4149128677507</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,22 +4019,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>38.87161743162455</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>68.31015748716329</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C3" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D3" t="n">
-        <v>92.68647758675968</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>48.10852568854899</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.60296187630945</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>26.02500997809875</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>26.02500997809875</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>26.02500997809875</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>26.02500997809875</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>26.02500997809875</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>115.1809137745201</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.9507376187037</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C6" t="n">
-        <v>87.37278572049297</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D6" t="n">
-        <v>42.79483382228227</v>
+        <v>660.701031422288</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>90.91227510121089</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.9507376187037</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>48.90696048418764</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>4.329008585976936</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>77.28117035226589</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>32.70321845405519</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="U8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>176.5286895169144</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>138.0185621377561</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>93.44061023954541</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>45.45613755060546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.73598234693722</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F11" t="n">
-        <v>32.70321845405519</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G11" t="n">
-        <v>32.70321845405519</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>32.70321845405519</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.70321845405519</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>90.91227510121089</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>134.6031257566472</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>131.9507376187037</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>131.9507376187037</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C14" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D14" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X14" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y14" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.3080510879349</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C21" t="n">
-        <v>111.3080510879349</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D21" t="n">
-        <v>111.3080510879349</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
         <v>20.03527576299844</v>
@@ -5832,16 +5832,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
         <v>894.6625969973069</v>
@@ -5859,22 +5859,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>534.7417369654049</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>534.7417369654049</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>534.7417369654049</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>534.7417369654049</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729568</v>
+        <v>534.7417369654049</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.5233881080029</v>
+        <v>326.981438200451</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6075,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>533.6469426057913</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>562.4161926976942</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>387.9631634165672</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>387.9631634165672</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>387.9631634165672</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>900.5586755307934</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>900.5586755307934</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V27" t="n">
-        <v>562.4161926976942</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W27" t="n">
-        <v>562.4161926976942</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X27" t="n">
-        <v>562.4161926976942</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y27" t="n">
-        <v>562.4161926976942</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6361,13 +6361,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W29" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W29" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>964.0571555106362</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="C30" t="n">
-        <v>817.1412885554689</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>586.1309991132009</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>586.1309991132009</v>
       </c>
       <c r="Y30" t="n">
-        <v>964.0571555106362</v>
+        <v>586.1309991132009</v>
       </c>
     </row>
     <row r="31">
@@ -6652,7 +6652,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
         <v>829.5248650203655</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6783,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W33" t="n">
-        <v>298.4948343740486</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>298.4948343740486</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6974,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y35" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="X35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7056,10 +7056,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82.34666575615842</v>
+        <v>359.8579014620034</v>
       </c>
       <c r="C39" t="n">
-        <v>82.34666575615842</v>
+        <v>359.8579014620034</v>
       </c>
       <c r="D39" t="n">
-        <v>82.34666575615842</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E39" t="n">
-        <v>82.34666575615842</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7260,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N39" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N39" t="n">
-        <v>656.0584510084244</v>
-      </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W39" t="n">
-        <v>290.1981659616912</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X39" t="n">
-        <v>82.34666575615842</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.34666575615842</v>
+        <v>528.0732384820715</v>
       </c>
     </row>
     <row r="40">
@@ -7363,7 +7363,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
         <v>829.5248650203655</v>
@@ -7430,13 +7430,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
         <v>749.627473042513</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>171.2153985321831</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7494,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y42" t="n">
-        <v>339.4307355522512</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="43">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.10852568854899</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>3.530573790338288</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>137.2644294849704</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>92.68647758675968</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>92.68647758675968</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W44" t="n">
-        <v>92.68647758675968</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X44" t="n">
-        <v>92.68647758675968</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y44" t="n">
-        <v>92.68647758675968</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>48.10852568854899</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C45" t="n">
-        <v>48.10852568854899</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D45" t="n">
-        <v>48.10852568854899</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E45" t="n">
-        <v>3.530573790338288</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>3.530573790338288</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>45.45613755060546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>45.45613755060546</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>176.3234617176304</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,7 +9492,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10668,22 +10668,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,22 +11142,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22562,7 +22562,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.8594832468445</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22629,25 +22629,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>108.5734481330142</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E3" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22720,7 +22720,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -22729,7 +22729,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.6529630861733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>326.401274339383</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>118.7734630237764</v>
+        <v>7.430788997210414</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.47904137820059</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23036,13 +23036,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,16 +23066,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="U8" t="n">
-        <v>222.4647346907568</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23100,25 +23100,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>106.9441862880172</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23221,13 +23221,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>193.5442607079387</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23349,16 +23349,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>51.27160674604839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23455,16 +23455,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.96086115989003</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>179.8844256577437</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23473,7 +23473,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23498,16 +23498,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>315.8114241890584</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E14" t="n">
-        <v>337.7981976930332</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23546,7 +23546,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23580,22 +23580,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>99.21849105784395</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23674,10 +23674,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23777,16 +23777,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23826,13 +23826,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23905,7 +23905,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23935,13 +23935,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,13 +23984,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,13 +24054,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>67.28503288371388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24099,7 +24099,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>46.9834695915236</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24181,10 +24181,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>126.0561017912447</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,19 +24254,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24291,7 +24291,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>52.90669720804131</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24333,7 +24333,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,16 +24342,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>153.9285226410787</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>227.3726215175137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24531,19 +24531,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>119.796197867473</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>108.8196759237934</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,10 +24579,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24731,16 +24731,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24777,10 +24777,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,13 +24813,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>103.4894704084334</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24892,10 +24892,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24923,16 +24923,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,13 +24968,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25008,13 +25008,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>62.55403989992466</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,13 +25044,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>106.5525690386005</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25132,10 +25132,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,19 +25154,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>56.38340022020472</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>99.61819928143612</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25354,16 +25354,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,22 +25391,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>112.9883676451507</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25488,10 +25488,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>27.7083567581867</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25603,10 +25603,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,7 +25679,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>10.81046392068936</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>22.29358612056504</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>102.0694181043652</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,22 +25907,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>184.2242321325068</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25941,31 +25941,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>104.3983415011524</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,13 +25998,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.8233657292951</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26074,16 +26074,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352681.3657860367</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674311</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352681.3657860366</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223277</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315934</v>
+        <v>91388.36989223288</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223286</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="H2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="M2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="O2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="P2" t="n">
-        <v>65754.15294315932</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999088</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>2376.667003714483</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26509,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12276.94385454353</v>
+        <v>-37841.86290078056</v>
       </c>
       <c r="C6" t="n">
-        <v>27066.64985878774</v>
+        <v>42927.56863076714</v>
       </c>
       <c r="D6" t="n">
-        <v>27066.64985878771</v>
+        <v>42927.56863076719</v>
       </c>
       <c r="E6" t="n">
-        <v>60694.24985878776</v>
+        <v>76555.16863076724</v>
       </c>
       <c r="F6" t="n">
-        <v>60694.24985878774</v>
+        <v>76555.16863076722</v>
       </c>
       <c r="G6" t="n">
-        <v>60694.24985878774</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="H6" t="n">
-        <v>20166.01628089587</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="I6" t="n">
-        <v>73286.58325122093</v>
+        <v>76555.16863076721</v>
       </c>
       <c r="J6" t="n">
-        <v>61739.66514123003</v>
+        <v>13495.22603166094</v>
       </c>
       <c r="K6" t="n">
-        <v>73286.58325122092</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="L6" t="n">
-        <v>73286.5832512209</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="M6" t="n">
-        <v>73286.5832512209</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="N6" t="n">
-        <v>73286.58325122093</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="O6" t="n">
-        <v>73286.58325122092</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="P6" t="n">
-        <v>60694.24985878774</v>
+        <v>76555.16863076718</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26829,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922856</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330018</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>42.34905430330019</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36212,7 +36212,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,19 +37151,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840488</v>
+        <v>440041.0145983155</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -716,13 +718,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -738,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>129.8850317745371</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -786,7 +788,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>230.8744955960827</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>150.2142914581905</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -996,7 +998,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>35.74905915623028</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
@@ -1178,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1379,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H11" t="n">
         <v>241.0142888776591</v>
@@ -1412,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1452,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1503,19 +1505,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>110.1947569831735</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,73 +1606,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1850,58 +1852,58 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,28 +2083,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>153.181259103298</v>
+        <v>167.5595947789707</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2293,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,22 +2365,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>97.88959590290915</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2485,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,64 +2566,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>21.78880197154309</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.86349518004441</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2752,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>113.1480979668291</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2931,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>148.2055127524862</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>119.3888130423743</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>197.7733550620193</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,67 +3268,67 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3348,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>47.82686628320264</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3408,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>188.2184153478179</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>34.45669791948801</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3642,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>89.98138655216526</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V41" t="n">
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>150.4149128677507</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>55.57566235103577</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,19 +4024,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>68.31015748716329</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4364,10 +4366,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
         <v>262.7299197543128</v>
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C3" t="n">
-        <v>689.4702815141908</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>539.5001871211437</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>380.2627321156882</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4416,10 +4418,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4434,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4480,13 +4482,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G5" t="n">
         <v>487.4018176583718</v>
@@ -4607,10 +4609,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660.701031422288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C6" t="n">
-        <v>660.701031422288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D6" t="n">
-        <v>660.701031422288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>660.701031422288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="W6" t="n">
-        <v>660.701031422288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="X6" t="n">
-        <v>660.701031422288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y6" t="n">
-        <v>660.701031422288</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
         <v>487.4018176583718</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="G11" t="n">
         <v>487.4018176583718</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D12" t="n">
         <v>19.28114311021272</v>
@@ -5130,7 +5132,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5151,19 +5153,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="13">
@@ -5224,22 +5226,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
         <v>19.28114311021272</v>
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5306,22 +5308,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X14" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y14" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
         <v>223.7040404982626</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5698,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.7661011803829</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C21" t="n">
-        <v>158.7661011803829</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D21" t="n">
-        <v>158.7661011803829</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E21" t="n">
-        <v>158.7661011803829</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>534.7417369654049</v>
+        <v>621.3876950229509</v>
       </c>
       <c r="U21" t="n">
-        <v>534.7417369654049</v>
+        <v>393.1640767593399</v>
       </c>
       <c r="V21" t="n">
-        <v>534.7417369654049</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="W21" t="n">
-        <v>534.7417369654049</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X21" t="n">
-        <v>534.7417369654049</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y21" t="n">
-        <v>326.981438200451</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="22">
@@ -5941,10 +5943,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E23" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C23" t="n">
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>577.2332497330343</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>125.0774898247174</v>
+        <v>489.203140025706</v>
       </c>
       <c r="C24" t="n">
-        <v>125.0774898247174</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D24" t="n">
-        <v>125.0774898247174</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>125.0774898247174</v>
+        <v>865.178775810728</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.0774898247174</v>
+        <v>657.4184770457741</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>190.9785763045963</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>42.04416664334499</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>42.04416664334499</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>42.04416664334499</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>42.04416664334499</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>42.04416664334499</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,10 +6314,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>900.5586755307934</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>900.5586755307934</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>672.3350572671825</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>437.1829490354398</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>193.7341723913397</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X27" t="n">
-        <v>193.7341723913397</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6488,16 +6490,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
         <v>749.627473042513</v>
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>417.9156620931329</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C30" t="n">
-        <v>417.9156620931329</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D30" t="n">
-        <v>417.9156620931329</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6551,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>748.5966180162197</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>546.4100233749857</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="W30" t="n">
-        <v>586.1309991132009</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="X30" t="n">
-        <v>586.1309991132009</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y30" t="n">
-        <v>586.1309991132009</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="31">
@@ -6652,13 +6654,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
         <v>829.5248650203655</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
         <v>477.1596022224361</v>
@@ -6737,13 +6739,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,19 +6803,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>670.0450503124422</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>434.8929420806995</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W33" t="n">
         <v>434.8929420806995</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6897,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X36" t="n">
-        <v>720.6083788665362</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="Y36" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7199,13 +7201,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
         <v>749.627473042513</v>
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>359.8579014620034</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>359.8579014620034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7266,10 +7268,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7290,13 +7292,13 @@
         <v>735.8335372470253</v>
       </c>
       <c r="W39" t="n">
-        <v>735.8335372470253</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X39" t="n">
-        <v>735.8335372470253</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y39" t="n">
-        <v>528.0732384820715</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7441,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>75.41817578802664</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C42" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7497,16 +7499,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N42" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N42" t="n">
-        <v>725.4530095217538</v>
-      </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>526.7184526376595</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2696759935595</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>75.41817578802664</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>75.41817578802664</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>795.8418184905681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>726.8416594126254</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>577.9072497513741</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7731,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7792,7 +7794,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -8064,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8310,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8778,10 +8780,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9012,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10197,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>229.6373335557741</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10914,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22604,13 +22606,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22626,22 +22628,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>15.1841806188468</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22674,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22869,13 +22871,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>7.430788997210414</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22884,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,16 +22913,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>197.051527993195</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
@@ -23066,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>120.0869518323295</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23267,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H11" t="n">
         <v>98.46051323810809</v>
@@ -23300,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23340,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23391,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>115.7466250978013</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23464,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23546,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,19 +23813,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>197.7981193194529</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23938,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,28 +23971,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>18.67467251196047</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>46.9834695915236</v>
+        <v>32.60513391585093</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24181,13 +24183,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>148.4449359431696</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>181.0016451065613</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>52.90669720804131</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>107.8833893005683</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24373,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>67.60783087987198</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,19 +24572,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>108.8196759237934</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24640,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24728,10 +24730,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>58.53507313700868</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,10 +24821,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>103.4894704084334</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24926,7 +24928,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>106.5525690386005</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>53.9216280989003</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25236,16 +25238,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>99.61819928143612</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25296,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>17.46428042948642</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25439,7 +25441,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25448,7 +25450,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>112.9883676451507</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25530,10 +25532,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>115.7915986513122</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25679,22 +25681,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>22.29358612056504</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>102.0694181043652</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>104.3983415011524</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>50.84673021034784</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26001,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26032,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="C2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="C2" t="n">
-        <v>91388.36989223277</v>
-      </c>
       <c r="D2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223286</v>
       </c>
       <c r="E2" t="n">
-        <v>91388.36989223288</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.36989223286</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="H2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="L2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223279</v>
       </c>
       <c r="M2" t="n">
         <v>91388.3698922328</v>
@@ -26353,7 +26355,7 @@
         <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078056</v>
+        <v>-37841.86290078057</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076714</v>
+        <v>42927.56863076718</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076719</v>
+        <v>42927.56863076722</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076724</v>
+        <v>76555.16863076721</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076722</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076721</v>
       </c>
       <c r="H6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076721</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="J6" t="n">
         <v>13495.22603166094</v>
       </c>
       <c r="K6" t="n">
+        <v>76555.16863076719</v>
+      </c>
+      <c r="L6" t="n">
         <v>76555.16863076716</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76555.16863076715</v>
       </c>
       <c r="M6" t="n">
         <v>76555.16863076716</v>
@@ -26561,7 +26563,7 @@
         <v>76555.16863076716</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076716</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34784,13 +34786,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35030,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,10 +35500,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35732,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36917,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37634,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440041.0145983155</v>
+        <v>337788.7049113788</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>129.8850317745371</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>35.74905915623028</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>121.6506232550285</v>
       </c>
     </row>
     <row r="7">
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>75.82036804258443</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>110.1947569831735</v>
+        <v>43.34711265671789</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,14 +1615,14 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>84.0572199420196</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1943,10 +1943,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>167.5595947789707</v>
+        <v>162.4417619616647</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>62.52515684565935</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2450,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>97.88959590290915</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2487,55 +2487,55 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,20 +2557,20 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.78880197154309</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>113.1480979668291</v>
+        <v>88.6401485661975</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>197.7733550620193</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,61 +3189,61 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100.3796369526212</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>78.19622121383929</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.2184153478179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3511,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>89.98138655216526</v>
+        <v>55.51880475039414</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>150.4149128677507</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>154.8359655669564</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>109.364731275353</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.3111039422953</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,46 +4146,46 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4351,25 +4351,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
         <v>262.7299197543128</v>
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C3" t="n">
-        <v>688.4345967823949</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D3" t="n">
-        <v>539.5001871211437</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E3" t="n">
-        <v>380.2627321156882</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,10 +4418,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4445,16 +4445,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4518,22 +4518,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222.9499078454769</v>
+        <v>638.9911434400805</v>
       </c>
       <c r="C6" t="n">
-        <v>222.9499078454769</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D6" t="n">
-        <v>222.9499078454769</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E6" t="n">
-        <v>222.9499078454769</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>222.9499078454769</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>222.9499078454769</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>222.9499078454769</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X6" t="n">
-        <v>222.9499078454769</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y6" t="n">
-        <v>222.9499078454769</v>
+        <v>638.9911434400805</v>
       </c>
     </row>
     <row r="7">
@@ -4746,22 +4746,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4898,10 +4898,10 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168.215552771464</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C12" t="n">
-        <v>168.215552771464</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5126,10 +5126,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5147,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>375.9758515364179</v>
+        <v>819.1026637840089</v>
       </c>
       <c r="V12" t="n">
-        <v>375.9758515364179</v>
+        <v>583.9505555522662</v>
       </c>
       <c r="W12" t="n">
-        <v>375.9758515364179</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="X12" t="n">
-        <v>375.9758515364179</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y12" t="n">
-        <v>168.215552771464</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="13">
@@ -5223,25 +5223,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
         <v>19.28114311021272</v>
@@ -5263,10 +5263,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5366,37 +5366,37 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X15" t="n">
         <v>19.28114311021272</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="19">
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>621.3876950229509</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="U21" t="n">
-        <v>393.1640767593399</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V21" t="n">
-        <v>158.0119685275972</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>158.0119685275972</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5943,10 +5943,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>742.8341567219593</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y23" t="n">
-        <v>742.8341567219593</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>489.203140025706</v>
+        <v>82.43786719673733</v>
       </c>
       <c r="C24" t="n">
-        <v>314.750110744579</v>
+        <v>82.43786719673733</v>
       </c>
       <c r="D24" t="n">
-        <v>165.8157010833278</v>
+        <v>82.43786719673733</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>82.43786719673733</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X24" t="n">
-        <v>865.178775810728</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y24" t="n">
-        <v>657.4184770457741</v>
+        <v>82.43786719673733</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6183,16 +6183,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,28 +6247,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
         <v>262.7299197543128</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>365.4316055857233</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C27" t="n">
-        <v>190.9785763045963</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>42.04416664334499</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>42.04416664334499</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>42.04416664334499</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>42.04416664334499</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>42.04416664334499</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>533.6469426057913</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>533.6469426057913</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y27" t="n">
-        <v>533.6469426057913</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
         <v>19.28114311021272</v>
@@ -6402,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="C29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.334904905842</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>748.5966180162197</v>
+        <v>874.5216519084165</v>
       </c>
       <c r="T30" t="n">
-        <v>546.4100233749857</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="U30" t="n">
-        <v>318.1864051113748</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V30" t="n">
-        <v>318.1864051113748</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W30" t="n">
-        <v>318.1864051113748</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X30" t="n">
-        <v>110.334904905842</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.334904905842</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
         <v>477.1596022224361</v>
@@ -6694,7 +6694,7 @@
         <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6733,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
         <v>894.6625969973069</v>
@@ -6815,16 +6815,16 @@
         <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>634.6640077999109</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C35" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D35" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
         <v>31.35113235729608</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>237.752183214564</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>99.02135779717955</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,7 +7025,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7046,22 +7046,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>660.701031422288</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>417.2522547781879</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X36" t="n">
-        <v>209.4007545726551</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="37">
@@ -7077,10 +7077,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>492.3847606029253</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X39" t="n">
-        <v>401.4944711562937</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>328.2071404297052</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
         <v>19.28114311021272</v>
@@ -7365,19 +7365,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>509.4769954460863</v>
+      </c>
+      <c r="C41" t="n">
+        <v>509.4769954460863</v>
+      </c>
+      <c r="D41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.067986854209</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>171.2153985321831</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y42" t="n">
-        <v>339.4307355522512</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7593,28 +7593,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7681,19 +7681,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7730,49 +7730,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7833,25 +7833,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,19 +8300,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5053919605859</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,7 +10442,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>267.3928735857801</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>15.1841806188468</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22685,10 +22685,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22789,25 +22789,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>184.4282419190523</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>197.051527993195</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>84.03207252227585</v>
       </c>
     </row>
     <row r="7">
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23102,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>96.88813094573131</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>312.2938397833332</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23354,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>115.7466250978013</v>
+        <v>182.5942694242569</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,28 +23539,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,16 +23813,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,10 +23831,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23870,10 +23870,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="21">
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>32.60513391585093</v>
+        <v>37.72296673315694</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24183,13 +24183,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>148.4449359431696</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,13 +24223,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>317.6203761059298</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>82.54405554772453</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24338,19 +24338,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>107.8833893005683</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>37.29433897259889</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>67.60783087987198</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>58.53507313700868</v>
+        <v>83.04302253764033</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,10 +24934,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24973,13 +24973,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>1.929357147493789</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25055,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>53.9216280989003</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>216.5306486674267</v>
+        <v>306.4964087890903</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25244,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>34.03922302265717</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.46428042948642</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25399,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>316.4871080036351</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>115.7915986513122</v>
+        <v>150.2541804530833</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>351.4177255634863</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25645,7 +25645,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>22.29358612056504</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>71.10541651401837</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,22 +25949,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>38.08033428928577</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.84673021034784</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26003,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="C2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.36989223286</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="H2" t="n">
         <v>91388.36989223285</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="L2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="N2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="C4" t="n">
         <v>179.5324977039669</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078057</v>
+        <v>-50059.87352082098</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076718</v>
+        <v>30709.55801072672</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076722</v>
+        <v>30709.5580107267</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076721</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076721</v>
+        <v>64337.15801072669</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072674</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072669</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166094</v>
+        <v>1277.215411620471</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.15801072674</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072669</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072674</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
     </row>
   </sheetData>
@@ -34707,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34786,13 +34786,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9091475161414</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35734,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,7 +37162,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37393,10 +37393,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O42" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337788.7049113788</v>
+        <v>429790.5534944769</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5667942.033436031</v>
+        <v>5667942.03343603</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>101.6750322955565</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>111.7765806969846</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>241.0142888776591</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>218.0367771117171</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>121.6506232550285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>75.82036804258443</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>75.82036804258455</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6168938316385</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>43.34711265671789</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>11.19305615617957</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>84.0572199420196</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>238.2767604880135</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,46 +1785,46 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>152.2207240410305</v>
       </c>
       <c r="F18" t="n">
-        <v>111.7765806969846</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.41978777916125</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>162.4417619616647</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,58 +2332,58 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>21.85442600983729</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>62.52515684565935</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>220.2131257424249</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>90.90725545139051</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2721,64 +2721,64 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>88.6401485661975</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2933,10 +2933,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>124.906780124857</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="G33" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>28.48443724898828</v>
       </c>
       <c r="H36" t="n">
-        <v>78.19622121383929</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3435,61 +3435,61 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3587,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>55.51880475039414</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U42" t="n">
-        <v>154.8359655669564</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3915,40 +3915,40 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>190.3453970742847</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>241.0142888776591</v>
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>109.364731275353</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>66.11861112998605</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4388,16 +4388,16 @@
         <v>384.2867411876791</v>
       </c>
       <c r="C3" t="n">
-        <v>384.2867411876791</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D3" t="n">
-        <v>384.2867411876791</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E3" t="n">
-        <v>384.2867411876791</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F3" t="n">
-        <v>271.3811041200179</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G3" t="n">
         <v>132.6502787026334</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4518,7 +4518,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
         <v>506.1786963984129</v>
@@ -4594,25 +4594,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638.9911434400805</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C6" t="n">
-        <v>464.5381141589534</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D6" t="n">
-        <v>464.5381141589534</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4658,10 +4658,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>761.8705608694022</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>761.8705608694022</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="X6" t="n">
-        <v>761.8705608694022</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y6" t="n">
-        <v>638.9911434400805</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="7">
@@ -4752,16 +4752,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>517.4848137278872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>517.4848137278872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>384.2867411876791</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="C9" t="n">
         <v>307.7005108416342</v>
@@ -4892,16 +4892,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N9" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N9" t="n">
-        <v>726.4525409563269</v>
-      </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>786.3013957174769</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>551.1492874857342</v>
       </c>
       <c r="W9" t="n">
-        <v>384.2867411876791</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="X9" t="n">
-        <v>384.2867411876791</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="Y9" t="n">
-        <v>384.2867411876791</v>
+        <v>307.7005108416342</v>
       </c>
     </row>
     <row r="10">
@@ -4947,7 +4947,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5074,19 +5074,19 @@
         <v>527.5764290961142</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132.6502787026334</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6502787026334</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="D12" t="n">
-        <v>132.6502787026334</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="E12" t="n">
-        <v>132.6502787026334</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="F12" t="n">
-        <v>132.6502787026334</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,10 +5126,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>819.1026637840089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>583.9505555522662</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>340.5017789081662</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X12" t="n">
-        <v>132.6502787026334</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y12" t="n">
-        <v>132.6502787026334</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="13">
@@ -5266,7 +5266,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5302,13 +5302,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>517.4848137278872</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U14" t="n">
         <v>506.1786963984129</v>
@@ -5323,7 +5323,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5366,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>705.7335281915883</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>470.5814199598456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W15" t="n">
-        <v>227.1326433157456</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5472,16 +5472,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
         <v>262.7299197543128</v>
@@ -5548,19 +5548,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>384.2867411876791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C18" t="n">
-        <v>384.2867411876791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D18" t="n">
-        <v>384.2867411876791</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E18" t="n">
-        <v>384.2867411876791</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F18" t="n">
         <v>271.3811041200179</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>384.2867411876791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X18" t="n">
-        <v>384.2867411876791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y18" t="n">
-        <v>384.2867411876791</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="19">
@@ -5697,19 +5697,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>591.4512093066566</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W20" t="n">
-        <v>591.4512093066566</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X20" t="n">
-        <v>591.4512093066566</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>698.8050382234566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>470.5814199598456</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="22">
@@ -5943,13 +5943,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>533.6469426057913</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>290.1981659616912</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>290.1981659616912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6183,16 +6183,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
@@ -6217,7 +6217,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6259,19 +6259,19 @@
         <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W26" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6317,7 +6317,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>872.2316449536761</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>872.2316449536761</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>156.0631229240681</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
         <v>19.28114311021272</v>
@@ -6426,10 +6426,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
@@ -6490,25 +6490,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6548,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>874.5216519084165</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>672.3350572671825</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>672.3350572671825</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>437.1829490354398</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W30" t="n">
-        <v>193.7341723913397</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>156.0631229240681</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>156.0631229240681</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>156.0631229240681</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0631229240681</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F33" t="n">
-        <v>156.0631229240681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>399.5118995681682</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>156.0631229240681</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>156.0631229240681</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>156.0631229240681</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6882,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C36" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D36" t="n">
-        <v>384.2867411876791</v>
+        <v>398.2566246559538</v>
       </c>
       <c r="E36" t="n">
-        <v>384.2867411876791</v>
+        <v>398.2566246559538</v>
       </c>
       <c r="F36" t="n">
-        <v>237.752183214564</v>
+        <v>251.7220666828388</v>
       </c>
       <c r="G36" t="n">
-        <v>99.02135779717955</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,10 +7025,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X36" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y36" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7137,10 +7137,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,10 +7262,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>384.2867411876791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>328.2071404297052</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7317,16 +7317,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>509.4769954460863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C41" t="n">
-        <v>509.4769954460863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F41" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V41" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W41" t="n">
-        <v>509.4769954460863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X41" t="n">
-        <v>509.4769954460863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y41" t="n">
-        <v>509.4769954460863</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="42">
@@ -7502,7 +7502,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7514,13 +7514,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U42" t="n">
         <v>706.487660844374</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7596,25 +7596,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C44" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D44" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E44" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F44" t="n">
-        <v>223.6192102101089</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>467.067986854209</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X44" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>619.4388494194218</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C45" t="n">
-        <v>619.4388494194218</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D45" t="n">
-        <v>508.9694238887622</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>619.4388494194218</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>619.4388494194218</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y45" t="n">
-        <v>619.4388494194218</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="46">
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8306,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5053919605859</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>185.4193833999402</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9965,10 +9965,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10673,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11150,10 +11150,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>267.3928735857801</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,19 +22628,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>71.03346669275928</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>33.29263169639931</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22758,10 +22758,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>113.6687527430239</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>254.830481723707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22874,10 +22874,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>33.65820604920251</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>84.03207252227585</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23041,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>199.2828334142263</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>96.88813094573131</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>150.1210140383903</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23187,10 +23187,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>230.1618975371121</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>19.7266233315721</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>182.5942694242569</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>240.1525967516569</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23624,22 +23624,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>141.8841621389552</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>13.41822267290607</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23788,19 +23788,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,13 +23816,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>5.424356414370465</v>
       </c>
       <c r="F18" t="n">
-        <v>33.29263169639931</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23870,7 +23870,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>344.4597780394191</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>301.8181508768923</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24056,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>59.41660345025147</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>37.72296673315694</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>317.6203761059298</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>289.396393662649</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24296,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>82.54405554772453</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>31.13252716541155</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>37.29433897259889</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.250578701252621</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>280.8531039918463</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24809,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>83.04302253764033</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24821,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>126.7882030360626</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24934,10 +24934,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25007,10 +25007,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>81.92698065511942</v>
       </c>
       <c r="G33" t="n">
-        <v>1.929357147493789</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>306.4964087890903</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>246.9027416247241</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25238,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25247,16 +25247,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>108.8590799142223</v>
       </c>
       <c r="H36" t="n">
-        <v>34.03922302265717</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25292,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>316.4871080036351</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25475,10 +25475,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>150.2541804530833</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>351.4177255634863</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U42" t="n">
-        <v>71.10541651401837</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>224.9573404408503</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25918,13 +25918,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>108.226679839754</v>
@@ -25949,10 +25949,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>38.08033428928577</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>91.52646932541489</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26003,7 +26003,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674305</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="E2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="G2" t="n">
         <v>91388.36989223279</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="K2" t="n">
         <v>91388.36989223285</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223283</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223277</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
         <v>179.5324977039669</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50059.87352082098</v>
+        <v>-39063.6639627846</v>
       </c>
       <c r="C6" t="n">
-        <v>30709.55801072672</v>
+        <v>41705.76756876313</v>
       </c>
       <c r="D6" t="n">
-        <v>30709.5580107267</v>
+        <v>41705.76756876315</v>
       </c>
       <c r="E6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="F6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="G6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.3675687631</v>
       </c>
       <c r="H6" t="n">
-        <v>64337.15801072674</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="I6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="J6" t="n">
-        <v>1277.215411620471</v>
+        <v>12273.42496965692</v>
       </c>
       <c r="K6" t="n">
-        <v>64337.15801072674</v>
+        <v>75333.36756876316</v>
       </c>
       <c r="L6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.36756876316</v>
       </c>
       <c r="M6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="N6" t="n">
-        <v>64337.15801072674</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="O6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876309</v>
       </c>
       <c r="P6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876315</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>43.28534947792188</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36685,10 +36685,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37393,13 +37393,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37630,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37791,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37870,10 +37870,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O42" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O42" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
